--- a/encuestas.xlsx
+++ b/encuestas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduar\Desktop\PROYECTOS PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDF7838-5D74-4474-A449-27340ADFBB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C60F11C-8236-4932-B917-FAB85DDFA090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B08BD2B-70A2-45CD-946C-E684056FDA1F}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>85</v>
@@ -503,7 +503,7 @@
         <v>90</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>80</v>
@@ -529,7 +529,7 @@
         <v>85</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -537,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>75</v>
@@ -555,7 +555,7 @@
         <v>80</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>90</v>
@@ -581,7 +581,7 @@
         <v>75</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>70</v>
@@ -607,7 +607,7 @@
         <v>85</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -633,7 +633,7 @@
         <v>90</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -659,7 +659,7 @@
         <v>85</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -685,7 +685,7 @@
         <v>80</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -711,7 +711,7 @@
         <v>75</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -737,7 +737,7 @@
         <v>85</v>
       </c>
       <c r="H11" s="1">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">

--- a/encuestas.xlsx
+++ b/encuestas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduar\Desktop\PROYECTOS PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C60F11C-8236-4932-B917-FAB85DDFA090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F656A33-08B9-4362-A049-227666A8B1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1B08BD2B-70A2-45CD-946C-E684056FDA1F}"/>
   </bookViews>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3BCDD4-3CFE-470D-803D-6B8F00D78925}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,22 +488,22 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -514,22 +514,22 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H3">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -540,22 +540,22 @@
         <v>52</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -566,22 +566,22 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F5">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -592,22 +592,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G6">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -618,22 +618,22 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G7">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H7">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -644,22 +644,22 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G8">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -670,22 +670,22 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D9">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>70</v>
       </c>
       <c r="G9">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -696,22 +696,22 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F10">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -722,22 +722,22 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>80</v>
       </c>
       <c r="F11">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G11">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -748,13 +748,13 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>80</v>
@@ -763,7 +763,7 @@
         <v>90</v>
       </c>
       <c r="H12">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -774,19 +774,19 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E13">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G13">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>80</v>
@@ -800,22 +800,22 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D14">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F14">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -826,22 +826,22 @@
         <v>28</v>
       </c>
       <c r="C15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G15">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H15">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -852,19 +852,19 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>90</v>
       </c>
       <c r="E16">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G16">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>80</v>
@@ -878,19 +878,19 @@
         <v>30</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F17">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G17">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>80</v>
@@ -907,19 +907,19 @@
         <v>80</v>
       </c>
       <c r="D18">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G18">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -930,22 +930,22 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D19">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F19">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -962,16 +962,16 @@
         <v>80</v>
       </c>
       <c r="E20">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H20">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -982,22 +982,22 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F21">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G21">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H21">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1008,22 +1008,22 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E22">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G22">
         <v>90</v>
       </c>
       <c r="H22">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1034,22 +1034,22 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F23">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G23">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H23">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1060,22 +1060,22 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E24">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F24">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G24">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1086,22 +1086,22 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D25">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G25">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1115,19 +1115,19 @@
         <v>70</v>
       </c>
       <c r="D26">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F26">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H26">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1135,25 +1135,25 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D27">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G27">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1161,25 +1161,25 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C28">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D28">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F28">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1187,25 +1187,25 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D29">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E29">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H29">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1213,25 +1213,25 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F30">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G30">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H30">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1239,25 +1239,25 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E31">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G31">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H31">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -1265,25 +1265,25 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>70</v>
       </c>
       <c r="F32">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G32">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H32">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -1291,25 +1291,25 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>70</v>
       </c>
       <c r="E33">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F33">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G33">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -1317,25 +1317,25 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C34">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D34">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G34">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -1343,25 +1343,25 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C35">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D35">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F35">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H35">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1369,22 +1369,22 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>90</v>
       </c>
       <c r="E36">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G36">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>80</v>
@@ -1395,25 +1395,25 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C37">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D37">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F37">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -1421,25 +1421,25 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G38">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H38">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
@@ -1447,25 +1447,25 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C39">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E39">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>70</v>
       </c>
       <c r="G39">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
@@ -1473,25 +1473,25 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>70</v>
       </c>
       <c r="F40">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G40">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
@@ -1499,25 +1499,25 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C41">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D41">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G41">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
@@ -1525,25 +1525,25 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D42">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F42">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
@@ -1551,25 +1551,25 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C43">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D43">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E43">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H43">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
@@ -1577,25 +1577,25 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F44">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G44">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H44">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
@@ -1603,25 +1603,25 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C45">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F45">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G45">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -1629,25 +1629,25 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G46">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H46">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
@@ -1655,25 +1655,25 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C47">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D47">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E47">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F47">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -1681,25 +1681,25 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C48">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>70</v>
       </c>
       <c r="E48">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F48">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G48">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -1707,25 +1707,25 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C49">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D49">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G49">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
@@ -1733,25 +1733,25 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C50">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D50">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F50">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H50">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -1759,22 +1759,22 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C51">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <v>90</v>
       </c>
       <c r="E51">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G51">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>80</v>
@@ -1785,25 +1785,25 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C52">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D52">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F52">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
@@ -1811,25 +1811,25 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G53">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H53">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
@@ -1837,25 +1837,25 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E54">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>70</v>
       </c>
       <c r="G54">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -1863,25 +1863,25 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C55">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>70</v>
       </c>
       <c r="F55">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G55">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -1889,25 +1889,25 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C56">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D56">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="G56">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
@@ -1915,25 +1915,25 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C57">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E57">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F57">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G57">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -1941,25 +1941,25 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C58">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G58">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H58">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -1967,25 +1967,25 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C59">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D59">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E59">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F59">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -1993,25 +1993,25 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C60">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E60">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F60">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G60">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
@@ -2019,25 +2019,25 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>70</v>
       </c>
       <c r="D61">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G61">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
@@ -2045,25 +2045,25 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C62">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D62">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F62">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H62">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -2074,19 +2074,19 @@
         <v>27</v>
       </c>
       <c r="C63">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E63">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G63">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>80</v>
@@ -2097,25 +2097,25 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C64">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F64">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G64">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H64">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -2123,28 +2123,891 @@
         <v>64</v>
       </c>
       <c r="B65">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>80</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>70</v>
+      </c>
+      <c r="G65">
+        <v>90</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>27</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>70</v>
+      </c>
+      <c r="F66">
+        <v>90</v>
+      </c>
+      <c r="G66">
+        <v>80</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>26</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>70</v>
+      </c>
+      <c r="E67">
+        <v>80</v>
+      </c>
+      <c r="F67">
+        <v>90</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
         <v>29</v>
       </c>
-      <c r="C65">
-        <v>90</v>
-      </c>
-      <c r="D65">
-        <v>80</v>
-      </c>
-      <c r="E65">
-        <v>70</v>
-      </c>
-      <c r="F65">
-        <v>85</v>
-      </c>
-      <c r="G65">
+      <c r="C68">
+        <v>70</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>80</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>25</v>
+      </c>
+      <c r="C69">
+        <v>70</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>90</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>80</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>29</v>
+      </c>
+      <c r="C70">
+        <v>80</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>90</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <v>90</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>80</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>31</v>
+      </c>
+      <c r="C72">
+        <v>90</v>
+      </c>
+      <c r="D72">
+        <v>80</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>70</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>25</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>90</v>
+      </c>
+      <c r="F73">
+        <v>80</v>
+      </c>
+      <c r="G73">
+        <v>70</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>24</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>80</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>70</v>
+      </c>
+      <c r="G74">
+        <v>90</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>27</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>70</v>
+      </c>
+      <c r="F75">
+        <v>90</v>
+      </c>
+      <c r="G75">
+        <v>80</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="H65">
-        <v>85</v>
-      </c>
+      <c r="B76">
+        <v>26</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>70</v>
+      </c>
+      <c r="E76">
+        <v>80</v>
+      </c>
+      <c r="F76">
+        <v>90</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>29</v>
+      </c>
+      <c r="C77">
+        <v>70</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>80</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>70</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>90</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>80</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>27</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>90</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>70</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>25</v>
+      </c>
+      <c r="C80">
+        <v>80</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>90</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>28</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>90</v>
+      </c>
+      <c r="G81">
+        <v>80</v>
+      </c>
+      <c r="H81">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>26</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>90</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>70</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>30</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>70</v>
+      </c>
+      <c r="F83">
+        <v>90</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>29</v>
+      </c>
+      <c r="C84">
+        <v>80</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>90</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>23</v>
+      </c>
+      <c r="C85">
+        <v>90</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>80</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>93</v>
+      </c>
+      <c r="B86">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>80</v>
+      </c>
+      <c r="F86">
+        <v>90</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>94</v>
+      </c>
+      <c r="B87">
+        <v>24</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>70</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>80</v>
+      </c>
+      <c r="G87">
+        <v>90</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>95</v>
+      </c>
+      <c r="B88">
+        <v>27</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>90</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>70</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>96</v>
+      </c>
+      <c r="B89">
+        <v>25</v>
+      </c>
+      <c r="C89">
+        <v>80</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>90</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>97</v>
+      </c>
+      <c r="B90">
+        <v>28</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>90</v>
+      </c>
+      <c r="G90">
+        <v>80</v>
+      </c>
+      <c r="H90">
+        <v>70</v>
+      </c>
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>98</v>
+      </c>
+      <c r="B91">
+        <v>26</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>90</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>70</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>99</v>
+      </c>
+      <c r="B92">
+        <v>30</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>70</v>
+      </c>
+      <c r="F92">
+        <v>90</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>100</v>
+      </c>
+      <c r="B93">
+        <v>29</v>
+      </c>
+      <c r="C93">
+        <v>80</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>90</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>101</v>
+      </c>
+      <c r="B94">
+        <v>23</v>
+      </c>
+      <c r="C94">
+        <v>90</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>80</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>102</v>
+      </c>
+      <c r="B95">
+        <v>31</v>
+      </c>
+      <c r="C95">
+        <v>90</v>
+      </c>
+      <c r="D95">
+        <v>80</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>70</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>103</v>
+      </c>
+      <c r="B96">
+        <v>25</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>90</v>
+      </c>
+      <c r="F96">
+        <v>80</v>
+      </c>
+      <c r="G96">
+        <v>70</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>104</v>
+      </c>
+      <c r="B97">
+        <v>24</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>80</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>70</v>
+      </c>
+      <c r="G97">
+        <v>90</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>105</v>
+      </c>
+      <c r="B98">
+        <v>27</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>70</v>
+      </c>
+      <c r="F98">
+        <v>90</v>
+      </c>
+      <c r="G98">
+        <v>80</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K112" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>